--- a/November'21/02.11.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/November'21/02.11.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7695" tabRatio="574"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7695" tabRatio="574" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Market Due" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -240,20 +240,23 @@
     <t>Hello Daffidils</t>
   </si>
   <si>
-    <t>Staff Due Till 01-11-2021</t>
-  </si>
-  <si>
     <t>Total=</t>
   </si>
   <si>
     <t>02.11.2021</t>
+  </si>
+  <si>
+    <t>Staff Due Till 02-11-2021</t>
+  </si>
+  <si>
+    <t>Sign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -353,6 +356,22 @@
     <font>
       <b/>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -638,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,13 +1035,40 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1334,9 +1380,9 @@
   </sheetPr>
   <dimension ref="A1:BH238"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1748,7 +1794,7 @@
     </row>
     <row r="7" spans="1:60" ht="12.6" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>184209</v>
@@ -10601,10 +10647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10613,26 +10659,29 @@
     <col min="2" max="2" width="16.85546875" style="105" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="105" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="105" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="105"/>
+    <col min="5" max="5" width="16" style="105" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75">
+      <c r="A2" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="106" t="s">
         <v>8</v>
       </c>
@@ -10645,8 +10694,11 @@
       <c r="D3" s="106" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5">
+      <c r="E3" s="138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="107" t="s">
         <v>27</v>
       </c>
@@ -10659,8 +10711,9 @@
       <c r="D4" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
+      <c r="E4" s="131"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="107" t="s">
         <v>26</v>
       </c>
@@ -10673,8 +10726,9 @@
       <c r="D5" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5">
+      <c r="E5" s="131"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
@@ -10687,8 +10741,9 @@
       <c r="D6" s="107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
+      <c r="E6" s="131"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="107" t="s">
         <v>19</v>
       </c>
@@ -10701,8 +10756,9 @@
       <c r="D7" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5">
+      <c r="E7" s="131"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="107" t="s">
         <v>25</v>
       </c>
@@ -10715,8 +10771,9 @@
       <c r="D8" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5">
+      <c r="E8" s="131"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="107" t="s">
         <v>37</v>
       </c>
@@ -10729,8 +10786,9 @@
       <c r="D9" s="107" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5">
+      <c r="E9" s="131"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="107" t="s">
         <v>15</v>
       </c>
@@ -10743,8 +10801,9 @@
       <c r="D10" s="107" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5">
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="107" t="s">
         <v>17</v>
       </c>
@@ -10757,8 +10816,9 @@
       <c r="D11" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5">
+      <c r="E11" s="131"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="107" t="s">
         <v>20</v>
       </c>
@@ -10771,8 +10831,9 @@
       <c r="D12" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5">
+      <c r="E12" s="131"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="107" t="s">
         <v>14</v>
       </c>
@@ -10785,54 +10846,43 @@
       <c r="D13" s="107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5">
+      <c r="E13" s="131"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="107" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="108">
-        <v>2615</v>
+        <v>2513</v>
       </c>
       <c r="D14" s="107" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="108">
-        <v>2513</v>
-      </c>
-      <c r="D15" s="107" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5">
-      <c r="A16" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="108">
-        <f>SUM(C4:C15)</f>
-        <v>199277</v>
-      </c>
-      <c r="D16" s="107"/>
+      <c r="E14" s="131"/>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129">
+        <f>SUM(C4:C14)</f>
+        <v>196662</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="125" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="140" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>